--- a/Projetos 8051/Labirinto com EXSTO XM852/MAP.xlsx
+++ b/Projetos 8051/Labirinto com EXSTO XM852/MAP.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilmar Jeronimo\Documents\Documentos\UFABC\13° Quad\Aplicações de Microcontroladores\Projetos\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC8F732-C08D-4703-B477-1867F21D4DA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE057405-E898-43FD-A1D5-37498F124A0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAP 1" sheetId="1" r:id="rId1"/>
     <sheet name="MAP 2" sheetId="3" r:id="rId2"/>
     <sheet name="MAP 3" sheetId="4" r:id="rId3"/>
     <sheet name="MAP 4" sheetId="5" r:id="rId4"/>
-    <sheet name="MAP 5" sheetId="6" r:id="rId5"/>
-    <sheet name="Planilha1" sheetId="7" r:id="rId6"/>
-    <sheet name="Relatório de Compatibilidade" sheetId="8" r:id="rId7"/>
+    <sheet name="Planilha2" sheetId="9" r:id="rId5"/>
+    <sheet name="MAP 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="7" r:id="rId7"/>
+    <sheet name="Relatório de Compatibilidade" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,21 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="239">
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>A4/B4</t>
-  </si>
-  <si>
-    <t>G4/A4</t>
-  </si>
-  <si>
     <t>G4</t>
-  </si>
-  <si>
-    <t>F4/G4</t>
   </si>
   <si>
     <t>F4</t>
@@ -57,13 +49,7 @@
     <t>E4</t>
   </si>
   <si>
-    <t>D4/E4</t>
-  </si>
-  <si>
     <t>D4</t>
-  </si>
-  <si>
-    <t>C4/D4</t>
   </si>
   <si>
     <t>A4</t>
@@ -75,19 +61,10 @@
     <t>B5</t>
   </si>
   <si>
-    <t>A5/B5</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t>G5/A5</t>
-  </si>
-  <si>
     <t>G5</t>
-  </si>
-  <si>
-    <t>F5/G5</t>
   </si>
   <si>
     <t>F5</t>
@@ -96,13 +73,7 @@
     <t>E5</t>
   </si>
   <si>
-    <t>D5/E5</t>
-  </si>
-  <si>
     <t>D5</t>
-  </si>
-  <si>
-    <t>C5/D5</t>
   </si>
   <si>
     <t>C5</t>
@@ -145,9 +116,6 @@
       </rPr>
       <t>’’’’</t>
     </r>
-  </si>
-  <si>
-    <t>A7/B7</t>
   </si>
   <si>
     <r>
@@ -198,9 +166,6 @@
     </r>
   </si>
   <si>
-    <t>G7/A7</t>
-  </si>
-  <si>
     <r>
       <t>gis</t>
     </r>
@@ -247,9 +212,6 @@
       </rPr>
       <t>’’’’</t>
     </r>
-  </si>
-  <si>
-    <t>F7/G7</t>
   </si>
   <si>
     <r>
@@ -317,9 +279,6 @@
     </r>
   </si>
   <si>
-    <t>D7/E7</t>
-  </si>
-  <si>
     <r>
       <t>dis</t>
     </r>
@@ -366,9 +325,6 @@
       </rPr>
       <t>’’’’</t>
     </r>
-  </si>
-  <si>
-    <t>C7/D7</t>
   </si>
   <si>
     <r>
@@ -436,9 +392,6 @@
     </r>
   </si>
   <si>
-    <t>A6/B6</t>
-  </si>
-  <si>
     <r>
       <t>ais</t>
     </r>
@@ -487,9 +440,6 @@
     </r>
   </si>
   <si>
-    <t>G6/A6</t>
-  </si>
-  <si>
     <r>
       <t>gis</t>
     </r>
@@ -536,9 +486,6 @@
       </rPr>
       <t>’’’</t>
     </r>
-  </si>
-  <si>
-    <t>F6/G6</t>
   </si>
   <si>
     <r>
@@ -606,9 +553,6 @@
     </r>
   </si>
   <si>
-    <t>D6/E6</t>
-  </si>
-  <si>
     <r>
       <t>dis</t>
     </r>
@@ -655,9 +599,6 @@
       </rPr>
       <t>’’’</t>
     </r>
-  </si>
-  <si>
-    <t>C6/D6</t>
   </si>
   <si>
     <r>
@@ -1224,9 +1165,6 @@
     <t>h</t>
   </si>
   <si>
-    <t>A3/B3</t>
-  </si>
-  <si>
     <t>ais/b</t>
   </si>
   <si>
@@ -1236,9 +1174,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>G3/A3</t>
-  </si>
-  <si>
     <t>gis/as</t>
   </si>
   <si>
@@ -1246,9 +1181,6 @@
   </si>
   <si>
     <t>g</t>
-  </si>
-  <si>
-    <t>F3/G3</t>
   </si>
   <si>
     <t>fis/ges</t>
@@ -1266,9 +1198,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>D3/E3</t>
-  </si>
-  <si>
     <t>dis/es</t>
   </si>
   <si>
@@ -1276,9 +1205,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>C3/D3</t>
   </si>
   <si>
     <t>cis/des</t>
@@ -1296,9 +1222,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>A2/B2</t>
-  </si>
-  <si>
     <t>Ais/B</t>
   </si>
   <si>
@@ -1308,9 +1231,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>G2/A2</t>
-  </si>
-  <si>
     <t>Gis/As</t>
   </si>
   <si>
@@ -1318,9 +1238,6 @@
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>F2/G2</t>
   </si>
   <si>
     <t>Fis/Ges</t>
@@ -1338,9 +1255,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>D2/E2</t>
-  </si>
-  <si>
     <t>Dis/Es</t>
   </si>
   <si>
@@ -1348,9 +1262,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>C2/D2</t>
   </si>
   <si>
     <t>Cis/Des</t>
@@ -1373,9 +1284,6 @@
       </rPr>
       <t>H</t>
     </r>
-  </si>
-  <si>
-    <t>A1/B1</t>
   </si>
   <si>
     <r>
@@ -1439,9 +1347,6 @@
     </r>
   </si>
   <si>
-    <t>G1/A1</t>
-  </si>
-  <si>
     <r>
       <t>,</t>
     </r>
@@ -1501,9 +1406,6 @@
       </rPr>
       <t>50 Hz</t>
     </r>
-  </si>
-  <si>
-    <t>F1/G1</t>
   </si>
   <si>
     <r>
@@ -1568,9 +1470,6 @@
     </r>
   </si>
   <si>
-    <t>D1/E1</t>
-  </si>
-  <si>
     <r>
       <t>,</t>
     </r>
@@ -1615,9 +1514,6 @@
       </rPr>
       <t>D</t>
     </r>
-  </si>
-  <si>
-    <t>C1/D1</t>
   </si>
   <si>
     <r>
@@ -1680,9 +1576,6 @@
       </rPr>
       <t>H</t>
     </r>
-  </si>
-  <si>
-    <t>A0/B0</t>
   </si>
   <si>
     <r>
@@ -1922,11 +1815,125 @@
   <si>
     <t>Algumas células ou alguns estilos desta pasta de trabalho contêm formatação para a qual não há suporte no formato de arquivo selecionado. Esses formatos serão convertidos no formato mais próximo disponível.</t>
   </si>
+  <si>
+    <t>FREQ</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>AS7</t>
+  </si>
+  <si>
+    <t>GS7</t>
+  </si>
+  <si>
+    <t>AS6</t>
+  </si>
+  <si>
+    <t>AS5</t>
+  </si>
+  <si>
+    <t>AS4</t>
+  </si>
+  <si>
+    <t>AS3</t>
+  </si>
+  <si>
+    <t>AS2</t>
+  </si>
+  <si>
+    <t>AS1</t>
+  </si>
+  <si>
+    <t>AS0</t>
+  </si>
+  <si>
+    <t>GS6</t>
+  </si>
+  <si>
+    <t>GS5</t>
+  </si>
+  <si>
+    <t>GS4</t>
+  </si>
+  <si>
+    <t>GS3</t>
+  </si>
+  <si>
+    <t>GS2</t>
+  </si>
+  <si>
+    <t>GS1</t>
+  </si>
+  <si>
+    <t>FS7</t>
+  </si>
+  <si>
+    <t>FS6</t>
+  </si>
+  <si>
+    <t>FS5</t>
+  </si>
+  <si>
+    <t>FS4</t>
+  </si>
+  <si>
+    <t>FS3</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>DS7</t>
+  </si>
+  <si>
+    <t>DS6</t>
+  </si>
+  <si>
+    <t>DS5</t>
+  </si>
+  <si>
+    <t>DS4</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>DS2</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>CS7</t>
+  </si>
+  <si>
+    <t>CS6</t>
+  </si>
+  <si>
+    <t>CS5</t>
+  </si>
+  <si>
+    <t>CS4</t>
+  </si>
+  <si>
+    <t>CS3</t>
+  </si>
+  <si>
+    <t>CS2</t>
+  </si>
+  <si>
+    <t>CS1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2739,7 +2746,1874 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A730-4A6D-A5EF-34C56EF66CA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="416999984"/>
+        <c:axId val="416998672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="416999984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416998672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="416998672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416999984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3251093613298338E-2"/>
+                  <c:y val="-0.71464311752697585"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1B6-4F06-BF94-6B7B9863A488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415006160"/>
+        <c:axId val="415001896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415006160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415001896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415001896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415006160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F55D3D-2CB0-4DFD-98EC-E06F0B471299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85DEA12-896B-4DE1-97F2-102345ED1009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8737,11 +10611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CG31" sqref="CG31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BH13" sqref="BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12336,7 +14210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CY50"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -16322,10 +18196,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CY50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
@@ -17171,25 +19045,25 @@
     </row>
     <row r="10" spans="2:63" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="V10" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="AD10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="AM10" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="AV10" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="BF10" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:63" x14ac:dyDescent="0.25">
@@ -17316,52 +19190,52 @@
       <c r="CA19" s="176"/>
       <c r="CB19" s="183"/>
       <c r="CI19" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CJ19" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CK19" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="CL19" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CM19" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CN19" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CO19" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CP19" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CQ19" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="CR19" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="CS19" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CT19" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="CU19" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CV19" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CW19" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="CX19" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:103" x14ac:dyDescent="0.25">
@@ -17446,52 +19320,52 @@
       <c r="CA20" s="111"/>
       <c r="CB20" s="174"/>
       <c r="CI20" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CJ20" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CK20" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="CL20" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CM20" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="CN20" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CO20" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CP20" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CQ20" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="CR20" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CS20" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CT20" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CU20" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CV20" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CW20" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="CX20" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:103" x14ac:dyDescent="0.25">
@@ -17576,52 +19450,52 @@
       <c r="CA21" s="111"/>
       <c r="CB21" s="174"/>
       <c r="CI21" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CJ21" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CK21" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CL21" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CM21" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CN21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="CO21" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CP21" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CQ21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="CR21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="CS21" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CT21" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CU21" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CV21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="CW21" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CX21" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:103" x14ac:dyDescent="0.25">
@@ -17706,52 +19580,52 @@
       <c r="CA22" s="111"/>
       <c r="CB22" s="112"/>
       <c r="CI22" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="CJ22" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="CK22" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="CL22" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CM22" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="CN22" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="CO22" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="CP22" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CQ22" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CR22" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="CS22" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="CT22" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="CU22" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="CV22" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="CW22" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="CX22" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:103" x14ac:dyDescent="0.25">
@@ -20313,11 +22187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CY50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:CB50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CC9" sqref="CC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21142,25 +23016,25 @@
     </row>
     <row r="10" spans="2:63" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="V10" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="AD10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="AM10" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="AV10" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="BF10" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:63" x14ac:dyDescent="0.25">
@@ -21287,52 +23161,52 @@
       <c r="CA19" s="126"/>
       <c r="CB19" s="129"/>
       <c r="CI19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="CJ19" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CK19" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CL19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="CM19" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CN19" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CO19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="CP19" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CQ19" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CR19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="CS19" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CT19" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CU19" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CV19" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CW19" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CX19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:103" x14ac:dyDescent="0.25">
@@ -21417,52 +23291,52 @@
       <c r="CA20" s="111"/>
       <c r="CB20" s="128"/>
       <c r="CI20" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CJ20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CK20" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CL20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CM20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CN20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CO20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CP20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CQ20" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CR20" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CS20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CT20" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CU20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CV20" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CW20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CX20" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:103" x14ac:dyDescent="0.25">
@@ -21547,52 +23421,52 @@
       <c r="CA21" s="111"/>
       <c r="CB21" s="128"/>
       <c r="CI21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CJ21" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CK21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CL21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CM21" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CN21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CO21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CP21" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CQ21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CR21" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CS21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CT21" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CU21" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CV21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CW21" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CX21" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:103" x14ac:dyDescent="0.25">
@@ -21677,52 +23551,52 @@
       <c r="CA22" s="111"/>
       <c r="CB22" s="128"/>
       <c r="CI22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CJ22" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CK22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CL22" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CM22" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CN22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CO22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CP22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CQ22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CR22" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CS22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CT22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CU22" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CV22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CW22" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CX22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:103" x14ac:dyDescent="0.25">
@@ -24284,11 +26158,147 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8849426B-0D12-4C4B-B8FD-C34F2B593E35}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>1310</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>653</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>262</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1310</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>653</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>262</v>
+      </c>
+      <c r="B15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>494</v>
+      </c>
+      <c r="D19">
+        <f>66007/(C19^(1.001))</f>
+        <v>132.79120710419906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CY50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BS15" sqref="BS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25108,25 +27118,25 @@
     </row>
     <row r="10" spans="2:63" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="V10" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="AD10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="AM10" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="AV10" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="BF10" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:63" x14ac:dyDescent="0.25">
@@ -25253,52 +27263,52 @@
       <c r="CA19" s="126"/>
       <c r="CB19" s="129"/>
       <c r="CI19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="CJ19" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CK19" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CL19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="CM19" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CN19" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CO19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="CP19" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CQ19" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CR19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="CS19" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CT19" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CU19" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CV19" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CW19" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CX19" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:103" x14ac:dyDescent="0.25">
@@ -25383,52 +27393,52 @@
       <c r="CA20" s="111"/>
       <c r="CB20" s="128"/>
       <c r="CI20" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CJ20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CK20" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CL20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CM20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CN20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CO20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CP20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CQ20" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CR20" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CS20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CT20" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CU20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CV20" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CW20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CX20" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:103" x14ac:dyDescent="0.25">
@@ -25513,52 +27523,52 @@
       <c r="CA21" s="111"/>
       <c r="CB21" s="128"/>
       <c r="CI21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CJ21" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CK21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CL21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CM21" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CN21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CO21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CP21" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CQ21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CR21" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CS21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CT21" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="CU21" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CV21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CW21" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CX21" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:103" x14ac:dyDescent="0.25">
@@ -25643,52 +27653,52 @@
       <c r="CA22" s="111"/>
       <c r="CB22" s="128"/>
       <c r="CI22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CJ22" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CK22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CL22" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="CM22" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CN22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CO22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CP22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CQ22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CR22" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CS22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CT22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="CU22" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="CV22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="CW22" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="CX22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:103" x14ac:dyDescent="0.25">
@@ -28249,12 +30259,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I88"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28266,15 +30276,15 @@
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="116">
         <v>88</v>
       </c>
       <c r="B1" s="116" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="C1" s="116" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D1" s="116">
         <v>4186.01</v>
@@ -28295,16 +30305,24 @@
         <f>$H$1*1000/(2*E1)</f>
         <v>348.83416666666665</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <f>66007/(D1^(1.001))</f>
+        <v>15.637521970501581</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#define ",B1," ",ROUND(K1,0))</f>
+        <v>#define C8 16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="116">
         <v>87</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="116" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="116">
         <v>3951.07</v>
@@ -28321,16 +30339,24 @@
         <f t="shared" ref="I2:I65" si="2">$H$1*1000/(2*E2)</f>
         <v>329.25583333333333</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f t="shared" ref="K2:K65" si="3">66007/(D2^(1.001))</f>
+        <v>16.568323127229874</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L65" si="4">CONCATENATE("#define ",B2," ",ROUND(K2,0))</f>
+        <v>#define B7 17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="118">
         <v>86</v>
       </c>
       <c r="B3" s="116" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="C3" s="116" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D3" s="116">
         <v>3729.31</v>
@@ -28341,22 +30367,30 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="1"/>
-        <v>#define A7/B7 134</v>
+        <v>#define AS7 134</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
         <v>310.77583333333325</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" si="3"/>
+        <v>17.554557249711994</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="4"/>
+        <v>#define AS7 18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="116">
         <v>85</v>
       </c>
       <c r="B4" s="116" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D4" s="116">
         <v>3520</v>
@@ -28373,16 +30407,24 @@
         <f t="shared" si="2"/>
         <v>293.33333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>18.599479400924821</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A7 19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="118">
         <v>84</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5" s="116">
         <v>3322.44</v>
@@ -28393,22 +30435,30 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>#define G7/A7 150</v>
+        <v>#define GS7 150</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
         <v>276.86999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>19.706585900111776</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
+        <v>#define GS7 20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="116">
         <v>83</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D6" s="116">
         <v>3135.96</v>
@@ -28425,16 +30475,24 @@
         <f t="shared" si="2"/>
         <v>261.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>20.87964496081317</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G7 21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="118">
         <v>82</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D7" s="116">
         <v>2959.96</v>
@@ -28445,22 +30503,30 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>#define F7/G7 169</v>
+        <v>#define FS7 169</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
         <v>246.66333333333336</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>22.122431886790721</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>#define FS7 22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="116">
         <v>81</v>
       </c>
       <c r="B8" s="116" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C8" s="116" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D8" s="116">
         <v>2793.83</v>
@@ -28477,16 +30543,24 @@
         <f t="shared" si="2"/>
         <v>232.81916666666663</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>23.439255775168611</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F7 23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="116">
         <v>80</v>
       </c>
       <c r="B9" s="116" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D9" s="116">
         <v>2637.02</v>
@@ -28503,16 +30577,24 @@
         <f t="shared" si="2"/>
         <v>219.75166666666664</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>24.83450211191423</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E7 25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="118">
         <v>79</v>
       </c>
       <c r="B10" s="116" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D10" s="116">
         <v>2489.02</v>
@@ -28523,22 +30605,30 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>#define D7/E7 201</v>
+        <v>#define DS7 201</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
         <v>207.41833333333332</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>26.312710040880862</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v>#define DS7 26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="116">
         <v>78</v>
       </c>
       <c r="B11" s="116" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C11" s="116" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D11" s="116">
         <v>2349.3200000000002</v>
@@ -28555,16 +30645,24 @@
         <f t="shared" si="2"/>
         <v>195.77666666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>27.878979759318611</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D7 28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="118">
         <v>77</v>
       </c>
       <c r="B12" s="116" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D12" s="116">
         <v>2217.46</v>
@@ -28575,22 +30673,30 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>#define C7/D7 225</v>
+        <v>#define CS7 225</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
         <v>184.78833333333333</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>29.538493661530161</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="4"/>
+        <v>#define CS7 30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="116">
         <v>76</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D13" s="116">
         <v>2093</v>
@@ -28607,16 +30713,24 @@
         <f t="shared" si="2"/>
         <v>174.41666666666666</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>31.296804504369323</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C7 31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="116">
         <v>75</v>
       </c>
       <c r="B14" s="116" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C14" s="116" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D14" s="116">
         <v>1975.53</v>
@@ -28633,16 +30747,24 @@
         <f t="shared" si="2"/>
         <v>164.6275</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>33.159706799340825</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B6 33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="118">
         <v>74</v>
       </c>
       <c r="B15" s="116" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D15" s="116">
         <v>1864.66</v>
@@ -28653,22 +30775,30 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>#define A6/B6 268</v>
+        <v>#define AS6 268</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
         <v>155.38833333333332</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>35.133364416278454</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="4"/>
+        <v>#define AS6 35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="116">
         <v>73</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D16" s="116">
         <v>1760</v>
@@ -28685,16 +30815,24 @@
         <f t="shared" si="2"/>
         <v>146.66666666666669</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>37.224752093503916</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A6 37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="118">
         <v>72</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D17" s="116">
         <v>1661.22</v>
@@ -28705,22 +30843,30 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>#define G6/A6 301</v>
+        <v>#define GS6 301</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
         <v>138.43499999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>39.440500399410347</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="4"/>
+        <v>#define GS6 39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="116">
         <v>71</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D18" s="116">
         <v>1567.98</v>
@@ -28737,16 +30883,24 @@
         <f t="shared" si="2"/>
         <v>130.66499999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>41.788245289704207</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G6 42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="117">
         <v>70</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D19" s="116">
         <v>1479.98</v>
@@ -28757,22 +30911,30 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>#define F6/G6 338</v>
+        <v>#define FS6 338</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
         <v>123.33166666666668</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>44.275542607405647</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v>#define FS6 44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="116">
         <v>69</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C20" s="116" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D20" s="116">
         <v>1396.91</v>
@@ -28789,16 +30951,24 @@
         <f t="shared" si="2"/>
         <v>116.40916666666668</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>46.911184600366873</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F6 47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="116">
         <v>68</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C21" s="116" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D21" s="116">
         <v>1318.51</v>
@@ -28815,16 +30985,24 @@
         <f t="shared" si="2"/>
         <v>109.87583333333332</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>49.703444088636147</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E6 50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="118">
         <v>67</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D22" s="116">
         <v>1244.51</v>
@@ -28835,22 +31013,30 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>#define D6/E6 402</v>
+        <v>#define DS6 402</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
         <v>103.70916666666666</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>52.66190988825948</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v>#define DS6 53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="116">
         <v>66</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D23" s="116">
         <v>1174.6600000000001</v>
@@ -28867,16 +31053,24 @@
         <f t="shared" si="2"/>
         <v>97.888333333333335</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>55.796621388706491</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D6 56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="118">
         <v>65</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="C24" s="116" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D24" s="116">
         <v>1108.73</v>
@@ -28887,22 +31081,30 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>#define C6/D6 451</v>
+        <v>#define CS6 451</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
         <v>92.394166666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>59.117950565397187</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="4"/>
+        <v>#define CS6 59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="116">
         <v>64</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C25" s="116" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D25" s="116">
         <v>1046.5</v>
@@ -28919,16 +31121,24 @@
         <f t="shared" si="2"/>
         <v>87.208333333333329</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>62.637010632463003</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C6 63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="116">
         <v>63</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C26" s="116" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D26" s="116">
         <v>987.76700000000005</v>
@@ -28945,16 +31155,24 @@
         <f t="shared" si="2"/>
         <v>82.313916666666657</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>66.365264139620436</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B5 66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="118">
         <v>62</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="C27" s="116" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D27" s="116">
         <v>932.32799999999997</v>
@@ -28965,22 +31183,30 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>#define A5/B5 536</v>
+        <v>#define AS5 536</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
         <v>77.694000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>70.315601890645382</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="4"/>
+        <v>#define AS5 70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="116">
         <v>61</v>
       </c>
       <c r="B28" s="116" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C28" s="116" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D28" s="116">
         <v>880</v>
@@ -28997,16 +31223,24 @@
         <f t="shared" si="2"/>
         <v>73.333333333333343</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>74.501126539806478</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A5 75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="118">
         <v>60</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="C29" s="116" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D29" s="116">
         <v>830.60900000000004</v>
@@ -29017,22 +31251,30 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>#define G5/A5 602</v>
+        <v>#define GS5 602</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
         <v>69.217416666666665</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>78.935791024362643</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="4"/>
+        <v>#define GS5 79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="116">
         <v>59</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" s="116" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D30" s="116">
         <v>783.99099999999999</v>
@@ -29049,16 +31291,24 @@
         <f t="shared" si="2"/>
         <v>65.332583333333318</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>83.634334685656839</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G5 84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="118">
         <v>58</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="C31" s="116" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D31" s="116">
         <v>739.98900000000003</v>
@@ -29069,22 +31319,30 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>#define F5/G5 676</v>
+        <v>#define FS5 676</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
         <v>61.665749999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>88.612605295227581</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="4"/>
+        <v>#define FS5 89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="116">
         <v>57</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C32" s="116" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D32" s="116">
         <v>698.45600000000002</v>
@@ -29101,16 +31359,24 @@
         <f t="shared" si="2"/>
         <v>58.204666666666668</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>93.887289899438514</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F5 94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="116">
         <v>56</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C33" s="116" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D33" s="116">
         <v>659.255</v>
@@ -29127,16 +31393,24 @@
         <f t="shared" si="2"/>
         <v>54.937916666666659</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>99.475815667228602</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E5 99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="118">
         <v>55</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="C34" s="116" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D34" s="116">
         <v>622.25400000000002</v>
@@ -29147,22 +31421,30 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>#define D5/E5 804</v>
+        <v>#define DS5 804</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
         <v>51.854499999999994</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>105.39701954118661</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="4"/>
+        <v>#define DS5 105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="116">
         <v>54</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C35" s="116" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D35" s="116">
         <v>587.33000000000004</v>
@@ -29179,16 +31461,24 @@
         <f t="shared" si="2"/>
         <v>48.944166666666668</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>111.6706201328635</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D5 112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="118">
         <v>53</v>
       </c>
       <c r="B36" s="116" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="C36" s="116" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D36" s="116">
         <v>554.36500000000001</v>
@@ -29199,22 +31489,30 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>#define C5/D5 902</v>
+        <v>#define CS5 902</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
         <v>46.197083333333332</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>118.31788442226544</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="4"/>
+        <v>#define CS5 118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="116">
         <v>52</v>
       </c>
       <c r="B37" s="116" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C37" s="116" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D37" s="116">
         <v>523.25099999999998</v>
@@ -29231,8 +31529,16 @@
         <f t="shared" si="2"/>
         <v>43.604249999999993</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>125.36064488029373</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C5 125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="116">
         <v>51</v>
       </c>
@@ -29240,7 +31546,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="116" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D38" s="116">
         <v>493.88299999999998</v>
@@ -29257,16 +31563,24 @@
         <f t="shared" si="2"/>
         <v>41.15691666666666</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>132.82269656555812</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B4 133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="118">
         <v>50</v>
       </c>
       <c r="B39" s="116" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="C39" s="116" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D39" s="116">
         <v>466.16399999999999</v>
@@ -29277,22 +31591,30 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>#define A4/B4 1073</v>
+        <v>#define AS4 1073</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
         <v>38.847000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>140.72871569484028</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="4"/>
+        <v>#define AS4 141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A40" s="119">
         <v>49</v>
       </c>
       <c r="B40" s="121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40" s="121" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D40" s="119">
         <v>440</v>
@@ -29309,16 +31631,24 @@
         <f t="shared" si="2"/>
         <v>36.666666666666671</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>149.10556937379457</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A4 149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="118">
         <v>48</v>
       </c>
       <c r="B41" s="116" t="s">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="C41" s="116" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D41" s="116">
         <v>415.30500000000001</v>
@@ -29329,22 +31659,30 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>#define G4/A4 1204</v>
+        <v>#define GS4 1204</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
         <v>34.608749999999993</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>157.98085783538926</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="4"/>
+        <v>#define GS4 158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="116">
         <v>47</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" s="116" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D42" s="116">
         <v>391.995</v>
@@ -29361,16 +31699,24 @@
         <f t="shared" si="2"/>
         <v>32.666249999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>167.38486508659611</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G4 167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="118">
         <v>46</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="C43" s="116" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D43" s="116">
         <v>369.99400000000003</v>
@@ -29381,22 +31727,30 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>#define F4/G4 1351</v>
+        <v>#define FS4 1351</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
         <v>30.832833333333333</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>177.34833623267147</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="4"/>
+        <v>#define FS4 177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="116">
         <v>45</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44" s="116" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D44" s="116">
         <v>349.22800000000001</v>
@@ -29413,16 +31767,24 @@
         <f t="shared" si="2"/>
         <v>29.102333333333334</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>187.90478033830098</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F4 188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="116">
         <v>44</v>
       </c>
       <c r="B45" s="116" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C45" s="116" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D45" s="116">
         <v>329.62799999999999</v>
@@ -29439,16 +31801,24 @@
         <f t="shared" si="2"/>
         <v>27.469000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>199.08927960798513</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E4 199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="118">
         <v>43</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="C46" s="116" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D46" s="116">
         <v>311.12700000000001</v>
@@ -29459,22 +31829,30 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>#define D4/E4 1607</v>
+        <v>#define DS4 1607</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
         <v>25.927249999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>210.94020102625936</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="4"/>
+        <v>#define DS4 211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="116">
         <v>42</v>
       </c>
       <c r="B47" s="116" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" s="116" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D47" s="116">
         <v>293.66500000000002</v>
@@ -29491,16 +31869,24 @@
         <f t="shared" si="2"/>
         <v>24.472083333333334</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>223.49610228160455</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D4 223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="118">
         <v>41</v>
       </c>
       <c r="B48" s="116" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="C48" s="116" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D48" s="116">
         <v>277.18299999999999</v>
@@ -29511,22 +31897,30 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>#define C4/D4 1804</v>
+        <v>#define CS4 1804</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
         <v>23.09858333333333</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>236.79942153834045</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="4"/>
+        <v>#define CS4 237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="120">
         <v>40</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C49" s="120" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D49" s="120">
         <v>261.62599999999998</v>
@@ -29543,16 +31937,24 @@
         <f t="shared" si="2"/>
         <v>21.802166666666665</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>250.89465678803958</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C4 251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="116">
         <v>39</v>
       </c>
       <c r="B50" s="116" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C50" s="116" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D50" s="116">
         <v>246.94200000000001</v>
@@ -29569,16 +31971,24 @@
         <f t="shared" si="2"/>
         <v>20.578500000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>265.82904953499866</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B3 266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="118">
         <v>38</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="C51" s="116" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D51" s="116">
         <v>233.08199999999999</v>
@@ -29589,22 +31999,30 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>#define A3/B3 2145</v>
+        <v>#define AS3 2145</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
         <v>19.423500000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>281.65259044385613</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="4"/>
+        <v>#define AS3 282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="116">
         <v>37</v>
       </c>
       <c r="B52" s="116" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C52" s="116" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D52" s="116">
         <v>220</v>
@@ -29621,16 +32039,24 @@
         <f t="shared" si="2"/>
         <v>18.333333333333336</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>298.41791461239842</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A3 298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="118">
         <v>36</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="C53" s="116" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D53" s="116">
         <v>207.65199999999999</v>
@@ -29641,22 +32067,30 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>#define G3/A3 2408</v>
+        <v>#define GS3 2408</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
         <v>17.304333333333332</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>316.18156164815719</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="4"/>
+        <v>#define GS3 316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="116">
         <v>35</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C54" s="116" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D54" s="116">
         <v>195.99799999999999</v>
@@ -29673,16 +32107,24 @@
         <f t="shared" si="2"/>
         <v>16.333166666666664</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>335.0009998470515</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="4"/>
+        <v>#define G3 335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="118">
         <v>34</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="C55" s="116" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D55" s="116">
         <v>184.99700000000001</v>
@@ -29693,22 +32135,30 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>#define F3/G3 2703</v>
+        <v>#define FS3 2703</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
         <v>15.416416666666667</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>354.94261469104964</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="4"/>
+        <v>#define FS3 355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="116">
         <v>33</v>
       </c>
       <c r="B56" s="116" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C56" s="116" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D56" s="116">
         <v>174.614</v>
@@ -29725,16 +32175,24 @@
         <f t="shared" si="2"/>
         <v>14.551166666666667</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>376.07014231429292</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="4"/>
+        <v>#define F3 376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="116">
         <v>32</v>
       </c>
       <c r="B57" s="116" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C57" s="116" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D57" s="116">
         <v>164.81399999999999</v>
@@ -29751,16 +32209,24 @@
         <f t="shared" si="2"/>
         <v>13.734500000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>398.4546512367989</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="4"/>
+        <v>#define E3 398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="118">
         <v>31</v>
       </c>
       <c r="B58" s="116" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="C58" s="116" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D58" s="116">
         <v>155.56299999999999</v>
@@ -29771,22 +32237,30 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>#define D3/E3 3214</v>
+        <v>#define DS3 3214</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
         <v>12.963583333333332</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>422.17428691040755</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="4"/>
+        <v>#define DS3 422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="116">
         <v>30</v>
       </c>
       <c r="B59" s="116" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C59" s="116" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D59" s="116">
         <v>146.83199999999999</v>
@@ -29803,16 +32277,24 @@
         <f t="shared" si="2"/>
         <v>12.235999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>447.30366805353884</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="4"/>
+        <v>#define D3 447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="118">
         <v>29</v>
       </c>
       <c r="B60" s="116" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="C60" s="116" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D60" s="116">
         <v>138.59100000000001</v>
@@ -29823,22 +32305,30 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>#define C3/D3 3608</v>
+        <v>#define CS3 3608</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
         <v>11.549249999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>473.92894209179178</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="4"/>
+        <v>#define CS3 474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="116">
         <v>28</v>
       </c>
       <c r="B61" s="116" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C61" s="116" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D61" s="116">
         <v>130.81299999999999</v>
@@ -29855,16 +32345,24 @@
         <f t="shared" si="2"/>
         <v>10.901083333333332</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>502.13724799496907</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="4"/>
+        <v>#define C3 502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="116">
         <v>27</v>
       </c>
       <c r="B62" s="116" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C62" s="116" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D62" s="116">
         <v>123.471</v>
@@ -29881,16 +32379,24 @@
         <f t="shared" si="2"/>
         <v>10.289250000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>532.02674413027171</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="4"/>
+        <v>#define B2 532</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="118">
         <v>26</v>
       </c>
       <c r="B63" s="116" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="C63" s="116" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D63" s="116">
         <v>116.541</v>
@@ -29901,22 +32407,30 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>#define A2/B2 4290</v>
+        <v>#define AS2 4290</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
         <v>9.7117500000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>563.69576963774671</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="4"/>
+        <v>#define AS2 564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="116">
         <v>25</v>
       </c>
       <c r="B64" s="116" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C64" s="116" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D64" s="116">
         <v>110</v>
@@ -29933,16 +32447,24 @@
         <f t="shared" si="2"/>
         <v>9.1666666666666679</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>597.24966770599997</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="4"/>
+        <v>#define A2 597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="118">
         <v>24</v>
       </c>
       <c r="B65" s="116" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="C65" s="116" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D65" s="116">
         <v>103.82599999999999</v>
@@ -29953,609 +32475,801 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>#define G2/A2 4816</v>
+        <v>#define GS2 4816</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
         <v>8.6521666666666661</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>632.80159595780549</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="4"/>
+        <v>#define GS2 633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="116">
         <v>23</v>
       </c>
       <c r="B66" s="116" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C66" s="116" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D66" s="116">
         <v>97.998900000000006</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E88" si="3">((1/D66)*1000000)/2</f>
+        <f t="shared" ref="E66:E88" si="5">((1/D66)*1000000)/2</f>
         <v>5102.0980847744204</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:F88" si="4">CONCATENATE("#define ",B66," ",ROUND(E66,0))</f>
+        <f t="shared" ref="F66:F88" si="6">CONCATENATE("#define ",B66," ",ROUND(E66,0))</f>
         <v>#define G2 5102</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I88" si="5">$H$1*1000/(2*E66)</f>
+        <f t="shared" ref="I66:I88" si="7">$H$1*1000/(2*E66)</f>
         <v>8.1665749999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" ref="K66:K88" si="8">66007/(D66^(1.001))</f>
+        <v>670.46725552199314</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" ref="L66:L88" si="9">CONCATENATE("#define ",B66," ",ROUND(K66,0))</f>
+        <v>#define G2 670</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="118">
         <v>22</v>
       </c>
       <c r="B67" s="116" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="C67" s="116" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D67" s="116">
         <v>92.498599999999996</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5405.4872181849241</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="4"/>
-        <v>#define F2/G2 5405</v>
+        <f t="shared" si="6"/>
+        <v>#define FS2 5405</v>
       </c>
       <c r="I67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.7082166666666661</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" si="8"/>
+        <v>710.3766861447865</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="9"/>
+        <v>#define FS2 710</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="116">
         <v>21</v>
       </c>
       <c r="B68" s="116" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C68" s="116" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D68" s="116">
         <v>87.307100000000005</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5726.9110988682469</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define F2 5727</v>
       </c>
       <c r="I68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2755916666666671</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" si="8"/>
+        <v>752.66094632451029</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="9"/>
+        <v>#define F2 753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="116">
         <v>20</v>
       </c>
       <c r="B69" s="116" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C69" s="116" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D69" s="116">
         <v>82.406899999999993</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6067.4530894864392</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define E2 6067</v>
       </c>
       <c r="I69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.8672416666666658</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="8"/>
+        <v>797.46283807295697</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="9"/>
+        <v>#define E2 797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="118">
         <v>19</v>
       </c>
       <c r="B70" s="116" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="C70" s="116" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D70" s="116">
         <v>77.781700000000001</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6428.2472612452548</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="4"/>
-        <v>#define D2/E2 6428</v>
+        <f t="shared" si="6"/>
+        <v>#define DS2 6428</v>
       </c>
       <c r="I70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4818083333333325</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>844.93185978541726</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="9"/>
+        <v>#define DS2 845</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="116">
         <v>18</v>
       </c>
       <c r="B71" s="116" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C71" s="116" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D71" s="116">
         <v>73.416200000000003</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6810.4859690368066</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define D2 6810</v>
       </c>
       <c r="I71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.1180166666666667</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="8"/>
+        <v>895.22520440496805</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="9"/>
+        <v>#define D2 895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="118">
         <v>17</v>
       </c>
       <c r="B72" s="116" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="C72" s="116" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D72" s="116">
         <v>69.295699999999997</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7215.4549272177064</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="4"/>
-        <v>#define C2/D2 7215</v>
+        <f t="shared" si="6"/>
+        <v>#define CS2 7215</v>
       </c>
       <c r="I72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.7746416666666658</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>948.51237663197162</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="9"/>
+        <v>#define CS2 949</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="116">
         <v>16</v>
       </c>
       <c r="B73" s="116" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C73" s="116" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D73" s="116">
         <v>65.406400000000005</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7644.5118520511751</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define C2 7645</v>
       </c>
       <c r="I73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4505333333333335</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>1004.9723853732623</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="9"/>
+        <v>#define C2 1005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="116">
         <v>15</v>
       </c>
       <c r="B74" s="116" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C74" s="122" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D74" s="116">
         <v>61.735399999999998</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8099.0809162976193</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define B1 8099</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1446166666666659</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>1064.7930160997489</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="9"/>
+        <v>#define B1 1065</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A75" s="118">
         <v>14</v>
       </c>
       <c r="B75" s="116" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="C75" s="122" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D75" s="116">
         <v>58.270499999999998</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8580.6711800997073</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="4"/>
-        <v>#define A1/B1 8581</v>
+        <f t="shared" si="6"/>
+        <v>#define AS1 8581</v>
       </c>
       <c r="I75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8558750000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="8"/>
+        <v>1128.1732584342471</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="9"/>
+        <v>#define AS1 1128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="116">
         <v>13</v>
       </c>
       <c r="B76" s="116" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C76" s="122" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D76" s="116">
         <v>55</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9090.9090909090901</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define A1 9091</v>
       </c>
       <c r="I76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5833333333333339</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="8"/>
+        <v>1195.3275862752359</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="9"/>
+        <v>#define A1 1195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="118">
         <v>12</v>
       </c>
       <c r="B77" s="116" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C77" s="122" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D77" s="116">
         <v>51.912999999999997</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9631.4988538516373</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="4"/>
-        <v>#define G1/A1 9631</v>
+        <f t="shared" si="6"/>
+        <v>#define GS1 9631</v>
       </c>
       <c r="I77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3260833333333331</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <f t="shared" si="8"/>
+        <v>1266.4807453014878</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="9"/>
+        <v>#define GS1 1266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A78" s="116">
         <v>11</v>
       </c>
       <c r="B78" s="116" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C78" s="122" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D78" s="116">
         <v>48.999499999999998</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10204.185756997522</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define G1 10204</v>
       </c>
       <c r="I78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0832916666666659</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>1341.8629275895671</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="9"/>
+        <v>#define G1 1342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="118">
         <v>10</v>
       </c>
       <c r="B79" s="116" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="C79" s="122" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D79" s="116">
         <v>46.249299999999998</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10810.974436369848</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="4"/>
-        <v>#define F1/G1 10811</v>
+        <f t="shared" si="6"/>
+        <v>#define FS1 10811</v>
       </c>
       <c r="I79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.854108333333333</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>1421.7385048653375</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="9"/>
+        <v>#define FS1 1422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="116">
         <v>9</v>
       </c>
       <c r="B80" s="116" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C80" s="122" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="D80" s="116">
         <v>43.653599999999997</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11453.809078747228</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define F1 11454</v>
       </c>
       <c r="I80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6377999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>1506.3639368886982</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="9"/>
+        <v>#define F1 1506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="116">
         <v>8</v>
       </c>
       <c r="B81" s="116" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C81" s="122" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="D81" s="116">
         <v>41.203499999999998</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12134.891453395949</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define E1 12135</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4336250000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="8"/>
+        <v>1596.0296389097396</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="9"/>
+        <v>#define E1 1596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="118">
         <v>7</v>
       </c>
       <c r="B82" s="116" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="C82" s="122" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="D82" s="116">
         <v>38.890900000000002</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12856.477993566617</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="4"/>
-        <v>#define D1/E1 12856</v>
+        <f t="shared" si="6"/>
+        <v>#define DS1 12856</v>
       </c>
       <c r="I82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2409083333333335</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="8"/>
+        <v>1691.0332736373757</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="9"/>
+        <v>#define DS1 1691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="116">
         <v>6</v>
       </c>
       <c r="B83" s="116" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C83" s="122" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D83" s="116">
         <v>36.708100000000002</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13620.971938073613</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define D1 13621</v>
       </c>
       <c r="I83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0590083333333333</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>1791.6918846757776</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="9"/>
+        <v>#define D1 1792</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="118">
         <v>5</v>
       </c>
       <c r="B84" s="116" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="C84" s="122" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="D84" s="116">
         <v>34.6479</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14430.889029349542</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="4"/>
-        <v>#define C1/D1 14431</v>
+        <f t="shared" si="6"/>
+        <v>#define CS1 14431</v>
       </c>
       <c r="I84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8873249999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>1898.3373842310184</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="9"/>
+        <v>#define CS1 1898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="116">
         <v>4</v>
       </c>
       <c r="B85" s="116" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C85" s="122" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D85" s="116">
         <v>32.703200000000002</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15289.02370410235</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define C1 15289</v>
       </c>
       <c r="I85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7252666666666667</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>2011.3384412510377</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="9"/>
+        <v>#define C1 2011</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="116">
         <v>3</v>
       </c>
       <c r="B86" s="116" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C86" s="122" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D86" s="116">
         <v>30.867699999999999</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16198.161832595239</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define B0 16198</v>
       </c>
       <c r="I86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.572308333333333</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>2131.0626604547128</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="9"/>
+        <v>#define B0 2131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="118">
         <v>2</v>
       </c>
       <c r="B87" s="116" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C87" s="122" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D87" s="116">
         <v>29.135300000000001</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17161.312909082797</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="4"/>
-        <v>#define A0/B0 17161</v>
+        <f t="shared" si="6"/>
+        <v>#define AS0 17161</v>
       </c>
       <c r="I87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4279416666666664</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>2257.9071605078725</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="9"/>
+        <v>#define AS0 2258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="116">
         <v>1</v>
       </c>
       <c r="B88" s="116" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="C88" s="122" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D88" s="116">
         <v>27.5</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18181.81818181818</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define A0 18182</v>
       </c>
       <c r="I88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.291666666666667</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>2392.3128228744717</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="9"/>
+        <v>#define A0 2392</v>
       </c>
     </row>
   </sheetData>
@@ -30565,8 +33279,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:F49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -30582,7 +33296,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="188" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C1" s="188"/>
       <c r="D1" s="197"/>
@@ -30591,7 +33305,7 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="188" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="C2" s="188"/>
       <c r="D2" s="197"/>
@@ -30607,7 +33321,7 @@
     </row>
     <row r="4" spans="2:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B4" s="189" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C4" s="189"/>
       <c r="D4" s="198"/>
@@ -30623,15 +33337,15 @@
     </row>
     <row r="6" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B6" s="188" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C6" s="188"/>
       <c r="D6" s="197"/>
       <c r="E6" s="197" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="F6" s="197" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -30643,7 +33357,7 @@
     </row>
     <row r="8" spans="2:6" ht="66" x14ac:dyDescent="0.25">
       <c r="B8" s="190" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C8" s="191"/>
       <c r="D8" s="199"/>
@@ -30657,10 +33371,10 @@
       <c r="C9" s="189"/>
       <c r="D9" s="198"/>
       <c r="E9" s="201" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="F9" s="202" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -30668,10 +33382,10 @@
       <c r="C10" s="189"/>
       <c r="D10" s="198"/>
       <c r="E10" s="201" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="F10" s="202" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30679,10 +33393,10 @@
       <c r="C11" s="189"/>
       <c r="D11" s="198"/>
       <c r="E11" s="201" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="F11" s="202" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30690,10 +33404,10 @@
       <c r="C12" s="189"/>
       <c r="D12" s="198"/>
       <c r="E12" s="201" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="F12" s="202" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30701,10 +33415,10 @@
       <c r="C13" s="189"/>
       <c r="D13" s="198"/>
       <c r="E13" s="201" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="F13" s="202" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30712,7 +33426,7 @@
       <c r="C14" s="189"/>
       <c r="D14" s="198"/>
       <c r="E14" s="201" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="F14" s="202"/>
     </row>
@@ -30721,7 +33435,7 @@
       <c r="C15" s="189"/>
       <c r="D15" s="198"/>
       <c r="E15" s="201" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="F15" s="202"/>
     </row>
@@ -30730,10 +33444,10 @@
       <c r="C16" s="189"/>
       <c r="D16" s="198"/>
       <c r="E16" s="201" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="F16" s="202" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -30741,10 +33455,10 @@
       <c r="C17" s="189"/>
       <c r="D17" s="198"/>
       <c r="E17" s="201" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="F17" s="202" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30752,10 +33466,10 @@
       <c r="C18" s="189"/>
       <c r="D18" s="198"/>
       <c r="E18" s="201" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="F18" s="202" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30763,10 +33477,10 @@
       <c r="C19" s="189"/>
       <c r="D19" s="198"/>
       <c r="E19" s="201" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F19" s="202" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30774,10 +33488,10 @@
       <c r="C20" s="189"/>
       <c r="D20" s="198"/>
       <c r="E20" s="201" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="F20" s="202" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30785,7 +33499,7 @@
       <c r="C21" s="189"/>
       <c r="D21" s="198"/>
       <c r="E21" s="201" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="F21" s="202"/>
     </row>
@@ -30794,7 +33508,7 @@
       <c r="C22" s="189"/>
       <c r="D22" s="198"/>
       <c r="E22" s="201" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="F22" s="202"/>
     </row>
@@ -30803,10 +33517,10 @@
       <c r="C23" s="189"/>
       <c r="D23" s="198"/>
       <c r="E23" s="201" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="F23" s="202" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -30814,10 +33528,10 @@
       <c r="C24" s="189"/>
       <c r="D24" s="198"/>
       <c r="E24" s="201" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="F24" s="202" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30825,10 +33539,10 @@
       <c r="C25" s="189"/>
       <c r="D25" s="198"/>
       <c r="E25" s="201" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="F25" s="202" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30836,10 +33550,10 @@
       <c r="C26" s="189"/>
       <c r="D26" s="198"/>
       <c r="E26" s="201" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="F26" s="202" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30847,10 +33561,10 @@
       <c r="C27" s="189"/>
       <c r="D27" s="198"/>
       <c r="E27" s="201" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="F27" s="202" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30858,7 +33572,7 @@
       <c r="C28" s="189"/>
       <c r="D28" s="198"/>
       <c r="E28" s="201" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="F28" s="202"/>
     </row>
@@ -30867,7 +33581,7 @@
       <c r="C29" s="189"/>
       <c r="D29" s="198"/>
       <c r="E29" s="201" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="F29" s="202"/>
     </row>
@@ -30876,10 +33590,10 @@
       <c r="C30" s="189"/>
       <c r="D30" s="198"/>
       <c r="E30" s="201" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="F30" s="202" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -30887,10 +33601,10 @@
       <c r="C31" s="189"/>
       <c r="D31" s="198"/>
       <c r="E31" s="201" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="F31" s="202" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30898,10 +33612,10 @@
       <c r="C32" s="189"/>
       <c r="D32" s="198"/>
       <c r="E32" s="201" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="F32" s="202" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30909,10 +33623,10 @@
       <c r="C33" s="189"/>
       <c r="D33" s="198"/>
       <c r="E33" s="201" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F33" s="202" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30920,10 +33634,10 @@
       <c r="C34" s="189"/>
       <c r="D34" s="198"/>
       <c r="E34" s="201" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="F34" s="202" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30931,7 +33645,7 @@
       <c r="C35" s="189"/>
       <c r="D35" s="198"/>
       <c r="E35" s="201" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="F35" s="202"/>
     </row>
@@ -30940,7 +33654,7 @@
       <c r="C36" s="189"/>
       <c r="D36" s="198"/>
       <c r="E36" s="201" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F36" s="202"/>
     </row>
@@ -30949,10 +33663,10 @@
       <c r="C37" s="189"/>
       <c r="D37" s="198"/>
       <c r="E37" s="201" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="F37" s="202" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -30960,10 +33674,10 @@
       <c r="C38" s="189"/>
       <c r="D38" s="198"/>
       <c r="E38" s="201" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="F38" s="202" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30971,10 +33685,10 @@
       <c r="C39" s="189"/>
       <c r="D39" s="198"/>
       <c r="E39" s="201" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="F39" s="202" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30982,10 +33696,10 @@
       <c r="C40" s="189"/>
       <c r="D40" s="198"/>
       <c r="E40" s="201" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="F40" s="202" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -30993,10 +33707,10 @@
       <c r="C41" s="189"/>
       <c r="D41" s="198"/>
       <c r="E41" s="201" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="F41" s="202" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -31004,7 +33718,7 @@
       <c r="C42" s="189"/>
       <c r="D42" s="198"/>
       <c r="E42" s="201" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="F42" s="202"/>
     </row>
@@ -31013,7 +33727,7 @@
       <c r="C43" s="194"/>
       <c r="D43" s="203"/>
       <c r="E43" s="204" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="F43" s="205"/>
     </row>
@@ -31033,7 +33747,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="188" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="C46" s="188"/>
       <c r="D46" s="197"/>
@@ -31049,7 +33763,7 @@
     </row>
     <row r="48" spans="2:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="195" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="C48" s="196"/>
       <c r="D48" s="206"/>
@@ -31057,7 +33771,7 @@
         <v>83</v>
       </c>
       <c r="F48" s="207" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -31069,41 +33783,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" location="'MAP 1'!H2:H9" display="'MAP 1'!H2:H9"/>
-    <hyperlink ref="E10" location="'MAP 1'!R2:R9" display="'MAP 1'!R2:R9"/>
-    <hyperlink ref="E11" location="'MAP 1'!AA2:AA9" display="'MAP 1'!AA2:AA9"/>
-    <hyperlink ref="E12" location="'MAP 1'!AJ2:AJ9" display="'MAP 1'!AJ2:AJ9"/>
-    <hyperlink ref="E13" location="'MAP 1'!AR2:AR9" display="'MAP 1'!AR2:AR9"/>
-    <hyperlink ref="E14" location="'MAP 1'!BA2:BA9" display="'MAP 1'!BA2:BA9"/>
-    <hyperlink ref="E15" location="'MAP 1'!BJ2:BJ9" display="'MAP 1'!BJ2:BJ9"/>
-    <hyperlink ref="E16" location="'MAP 2'!H2:H9" display="'MAP 2'!H2:H9"/>
-    <hyperlink ref="E17" location="'MAP 2'!R2:R9" display="'MAP 2'!R2:R9"/>
-    <hyperlink ref="E18" location="'MAP 2'!AA2:AA9" display="'MAP 2'!AA2:AA9"/>
-    <hyperlink ref="E19" location="'MAP 2'!AJ2:AJ9" display="'MAP 2'!AJ2:AJ9"/>
-    <hyperlink ref="E20" location="'MAP 2'!AS2:AS9" display="'MAP 2'!AS2:AS9"/>
-    <hyperlink ref="E21" location="'MAP 2'!BB2:BB9" display="'MAP 2'!BB2:BB9"/>
-    <hyperlink ref="E22" location="'MAP 2'!BK2:BK9" display="'MAP 2'!BK2:BK9"/>
-    <hyperlink ref="E23" location="'MAP 3'!H2:H9" display="'MAP 3'!H2:H9"/>
-    <hyperlink ref="E24" location="'MAP 3'!R2:R9" display="'MAP 3'!R2:R9"/>
-    <hyperlink ref="E25" location="'MAP 3'!AA2:AA9" display="'MAP 3'!AA2:AA9"/>
-    <hyperlink ref="E26" location="'MAP 3'!AJ2:AJ9" display="'MAP 3'!AJ2:AJ9"/>
-    <hyperlink ref="E27" location="'MAP 3'!AS2:AS9" display="'MAP 3'!AS2:AS9"/>
-    <hyperlink ref="E28" location="'MAP 3'!BB2:BB9" display="'MAP 3'!BB2:BB9"/>
-    <hyperlink ref="E29" location="'MAP 3'!BK2:BK9" display="'MAP 3'!BK2:BK9"/>
-    <hyperlink ref="E30" location="'MAP 4'!H2:H9" display="'MAP 4'!H2:H9"/>
-    <hyperlink ref="E31" location="'MAP 4'!R2:R9" display="'MAP 4'!R2:R9"/>
-    <hyperlink ref="E32" location="'MAP 4'!AA2:AA9" display="'MAP 4'!AA2:AA9"/>
-    <hyperlink ref="E33" location="'MAP 4'!AJ2:AJ9" display="'MAP 4'!AJ2:AJ9"/>
-    <hyperlink ref="E34" location="'MAP 4'!AS2:AS9" display="'MAP 4'!AS2:AS9"/>
-    <hyperlink ref="E35" location="'MAP 4'!BB2:BB9" display="'MAP 4'!BB2:BB9"/>
-    <hyperlink ref="E36" location="'MAP 4'!BK2:BK9" display="'MAP 4'!BK2:BK9"/>
-    <hyperlink ref="E37" location="'MAP 5'!H2:H9" display="'MAP 5'!H2:H9"/>
-    <hyperlink ref="E38" location="'MAP 5'!R2:R9" display="'MAP 5'!R2:R9"/>
-    <hyperlink ref="E39" location="'MAP 5'!AA2:AA9" display="'MAP 5'!AA2:AA9"/>
-    <hyperlink ref="E40" location="'MAP 5'!AJ2:AJ9" display="'MAP 5'!AJ2:AJ9"/>
-    <hyperlink ref="E41" location="'MAP 5'!AS2:AS9" display="'MAP 5'!AS2:AS9"/>
-    <hyperlink ref="E42" location="'MAP 5'!BB2:BB9" display="'MAP 5'!BB2:BB9"/>
-    <hyperlink ref="E43" location="'MAP 5'!BK2:BK9" display="'MAP 5'!BK2:BK9"/>
+    <hyperlink ref="E9" location="'MAP 1'!H2:H9" display="'MAP 1'!H2:H9" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E10" location="'MAP 1'!R2:R9" display="'MAP 1'!R2:R9" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E11" location="'MAP 1'!AA2:AA9" display="'MAP 1'!AA2:AA9" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E12" location="'MAP 1'!AJ2:AJ9" display="'MAP 1'!AJ2:AJ9" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E13" location="'MAP 1'!AR2:AR9" display="'MAP 1'!AR2:AR9" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E14" location="'MAP 1'!BA2:BA9" display="'MAP 1'!BA2:BA9" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="E15" location="'MAP 1'!BJ2:BJ9" display="'MAP 1'!BJ2:BJ9" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="E16" location="'MAP 2'!H2:H9" display="'MAP 2'!H2:H9" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="E17" location="'MAP 2'!R2:R9" display="'MAP 2'!R2:R9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="E18" location="'MAP 2'!AA2:AA9" display="'MAP 2'!AA2:AA9" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="E19" location="'MAP 2'!AJ2:AJ9" display="'MAP 2'!AJ2:AJ9" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="E20" location="'MAP 2'!AS2:AS9" display="'MAP 2'!AS2:AS9" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="E21" location="'MAP 2'!BB2:BB9" display="'MAP 2'!BB2:BB9" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="E22" location="'MAP 2'!BK2:BK9" display="'MAP 2'!BK2:BK9" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="E23" location="'MAP 3'!H2:H9" display="'MAP 3'!H2:H9" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="E24" location="'MAP 3'!R2:R9" display="'MAP 3'!R2:R9" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="E25" location="'MAP 3'!AA2:AA9" display="'MAP 3'!AA2:AA9" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="E26" location="'MAP 3'!AJ2:AJ9" display="'MAP 3'!AJ2:AJ9" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="E27" location="'MAP 3'!AS2:AS9" display="'MAP 3'!AS2:AS9" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="E28" location="'MAP 3'!BB2:BB9" display="'MAP 3'!BB2:BB9" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="E29" location="'MAP 3'!BK2:BK9" display="'MAP 3'!BK2:BK9" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="E30" location="'MAP 4'!H2:H9" display="'MAP 4'!H2:H9" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="E31" location="'MAP 4'!R2:R9" display="'MAP 4'!R2:R9" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="E32" location="'MAP 4'!AA2:AA9" display="'MAP 4'!AA2:AA9" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="E33" location="'MAP 4'!AJ2:AJ9" display="'MAP 4'!AJ2:AJ9" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="E34" location="'MAP 4'!AS2:AS9" display="'MAP 4'!AS2:AS9" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
+    <hyperlink ref="E35" location="'MAP 4'!BB2:BB9" display="'MAP 4'!BB2:BB9" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
+    <hyperlink ref="E36" location="'MAP 4'!BK2:BK9" display="'MAP 4'!BK2:BK9" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
+    <hyperlink ref="E37" location="'MAP 5'!H2:H9" display="'MAP 5'!H2:H9" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
+    <hyperlink ref="E38" location="'MAP 5'!R2:R9" display="'MAP 5'!R2:R9" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
+    <hyperlink ref="E39" location="'MAP 5'!AA2:AA9" display="'MAP 5'!AA2:AA9" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
+    <hyperlink ref="E40" location="'MAP 5'!AJ2:AJ9" display="'MAP 5'!AJ2:AJ9" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
+    <hyperlink ref="E41" location="'MAP 5'!AS2:AS9" display="'MAP 5'!AS2:AS9" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
+    <hyperlink ref="E42" location="'MAP 5'!BB2:BB9" display="'MAP 5'!BB2:BB9" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
+    <hyperlink ref="E43" location="'MAP 5'!BK2:BK9" display="'MAP 5'!BK2:BK9" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
